--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52321.58077453577</v>
+        <v>-60145.95434155276</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33943746.7024811</v>
+        <v>33970018.24655608</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10845540.69639407</v>
+        <v>10667670.21784128</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3601898.240735175</v>
+        <v>3680153.466571104</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>418.1856318563248</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>229.2611955112177</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.81976830925504</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>34.44698820166514</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141188</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
-        <v>126.0091317304331</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5263742585036</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995589</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>110.7618977778994</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>48.50583343253406</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>178.457582150926</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>85.14888072091819</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>79.80294453845707</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10.25244975144076</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>77.18157152763331</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735097</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>39.16843459224454</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>26.02722930522472</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2022,7 +2022,7 @@
         <v>131.0206200144772</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>41.26139198591461</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>86.27432500780398</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>214.5646102646778</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>215.2165613009029</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2335,7 +2335,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>147.8074306995952</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>382.0832367239146</v>
       </c>
       <c r="H26" t="n">
-        <v>247.3873723991447</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.79600181538857</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>286.694637492829</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>216.4413525895333</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>78.07675221617872</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>18.87668342991594</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,7 +2967,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>136.0829573912428</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>200.6809321206157</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>18.8433361815262</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -3243,13 +3243,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>214.5646102646778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>224.285978493914</v>
+        <v>163.6123473503224</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>53.1911703338642</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>204.8426041147488</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258614</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>100.9386117200761</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>224.2859784939135</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.2435844806786</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>74.4281100935485</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.285978493914</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>392.8072304459288</v>
       </c>
     </row>
     <row r="45">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>104.8528596352489</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>18.58065792654968</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1672.742527425299</v>
+        <v>1578.568163960875</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.332798277497</v>
+        <v>1140.425691144298</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441118</v>
+        <v>1140.425691144298</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963089</v>
+        <v>706.6509463025932</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850599</v>
+        <v>278.7835167118009</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H11" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524233</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>195.529221607333</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099032</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847206</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1036.7784573317</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1258.583260144776</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>1447.888527710259</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1997.710627381564</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1997.710627381564</v>
       </c>
       <c r="X11" t="n">
-        <v>1672.742527425299</v>
+        <v>1578.568163960875</v>
       </c>
       <c r="Y11" t="n">
-        <v>1672.742527425299</v>
+        <v>1578.568163960875</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352457</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>425.510762671888</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184412</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453949</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615565</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594551</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
-        <v>83.76937108752902</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>474.8738748284774</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6118936739097</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>741.5466961549138</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M12" t="n">
-        <v>920.0143971816303</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.205607207306</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1270.789775072916</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.8379027716</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R12" t="n">
-        <v>1672.742527425299</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.635830272358</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.353879029496</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>1319.064612101715</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1119.947094163714</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969082</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357881</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150088</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.0398973852271</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C13" t="n">
-        <v>376.0398973852271</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D13" t="n">
-        <v>210.1619045867498</v>
+        <v>277.6420604698901</v>
       </c>
       <c r="E13" t="n">
-        <v>210.1619045867498</v>
+        <v>107.8840567206274</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45485054850599</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7834697148434</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L13" t="n">
-        <v>919.1520231542094</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M13" t="n">
-        <v>1011.716877081226</v>
+        <v>910.964192855309</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.08074567448</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O13" t="n">
-        <v>1185.546404136305</v>
+        <v>2005.127382498299</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.542946114066</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>1667.182735391305</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R13" t="n">
-        <v>1672.742527425299</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>1524.001055161996</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.695918248114</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U13" t="n">
-        <v>1002.295781026849</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V13" t="n">
-        <v>715.3402728972799</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W13" t="n">
-        <v>603.4595680711188</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X13" t="n">
-        <v>603.4595680711188</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.0398973852271</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715612</v>
+        <v>1324.558407907194</v>
       </c>
       <c r="C14" t="n">
-        <v>716.4307943255671</v>
+        <v>1324.558407907194</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4307943255671</v>
+        <v>1324.558407907194</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
         <v>716.4307943255671</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381564</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371908</v>
+        <v>1324.558407907194</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715612</v>
+        <v>1324.558407907194</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>896.8524940391953</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2155219741246</v>
+        <v>558.412789723943</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895475</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895475</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895475</v>
@@ -5442,13 +5442,13 @@
         <v>564.2504555545215</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728196</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376306</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527957</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758183</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715612</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="C17" t="n">
-        <v>327.2841128549845</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>986.8099093426977</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>553.0351645009928</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>125.1677349102005</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001348</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381564</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371908</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715612</v>
+        <v>1849.019264653161</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043088</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668973</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210676</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960901</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987875</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
         <v>1676.651116233592</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>959.2942050525578</v>
+        <v>717.046980955965</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>717.046980955965</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895475</v>
@@ -5679,13 +5679,13 @@
         <v>564.2504555545215</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728196</v>
+        <v>828.1746199579907</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376306</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527957</v>
@@ -5703,22 +5703,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855379</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904122</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360844</v>
       </c>
       <c r="X19" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360844</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.112823771545</v>
+        <v>908.8655996749521</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.26120212753</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.26120212753</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.351417301975</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895475</v>
+        <v>157.867205102997</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1785.939375850676</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.26120212753</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235864</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5852,13 +5852,13 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
         <v>1505.938530508979</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.4344430832</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527957</v>
@@ -5931,7 +5931,7 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1525.741883262483</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C23" t="n">
-        <v>1525.741883262483</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.351417301975</v>
+        <v>1457.651852352071</v>
       </c>
       <c r="E23" t="n">
-        <v>874.5766724602698</v>
+        <v>1023.877107510366</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>596.0096779195737</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>196.5069865990509</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
         <v>805.4408022867025</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1952.04145374739</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
         <v>79.1492015823585</v>
@@ -6068,10 +6068,10 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6129,13 +6129,13 @@
         <v>443.520053268367</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698897</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E25" t="n">
-        <v>107.8840567206269</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G25" t="n">
         <v>47.20655154895474</v>
@@ -6147,22 +6147,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>831.5726843696448</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540314</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>724.9602158863578</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="C26" t="n">
-        <v>724.9602158863578</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="D26" t="n">
-        <v>724.9602158863578</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="E26" t="n">
-        <v>724.9602158863578</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="F26" t="n">
-        <v>297.0927862955655</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="G26" t="n">
-        <v>297.0927862955655</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>1957.244257596361</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W26" t="n">
-        <v>1552.388803007394</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X26" t="n">
-        <v>1133.246339586704</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="Y26" t="n">
-        <v>724.9602158863578</v>
+        <v>702.8707663625338</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6387,22 +6387,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,19 +6411,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W28" t="n">
-        <v>1552.738213270317</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X28" t="n">
         <v>1511.53013062851</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.1163363745102</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2141.69994856942</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>1736.844493980454</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X29" t="n">
-        <v>1317.702030559765</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y29" t="n">
-        <v>909.4159068594181</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>935.5002494220726</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C31" t="n">
-        <v>856.6348431431041</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D31" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6627,19 +6627,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>756.0122647025504</v>
       </c>
       <c r="M31" t="n">
-        <v>1690.512214359095</v>
+        <v>1340.193340120865</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150537</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O31" t="n">
         <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W31" t="n">
-        <v>1408.311674774552</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1162.919920107964</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y31" t="n">
-        <v>935.5002494220726</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2182.403674944107</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C32" t="n">
-        <v>1744.26120212753</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.351417301975</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E32" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
@@ -6700,13 +6700,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2117.153195419488</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="X32" t="n">
-        <v>2319.861207662534</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="Y32" t="n">
-        <v>2319.861207662534</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
         <v>110.3018381127067</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6891,19 +6891,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1973.653814855378</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>446.7092428694776</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6970,19 +6970,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X35" t="n">
-        <v>854.9953665698242</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="Y35" t="n">
-        <v>446.7092428694776</v>
+        <v>1580.208008741915</v>
       </c>
     </row>
     <row r="36">
@@ -7077,13 +7077,13 @@
         <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698897</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>277.6420604698897</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>100.9350064316459</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895474</v>
@@ -7104,10 +7104,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527957</v>
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>254.1182728769838</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>254.1182728769838</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>254.1182728769838</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>254.1182728769838</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>254.1182728769838</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>254.1182728769838</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.54685999802</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>662.4043965773304</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>254.1182728769838</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D40" t="n">
         <v>393.6716093364613</v>
@@ -7320,37 +7320,37 @@
         <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>149.1647452055973</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
         <v>1775.969506973259</v>
@@ -7447,16 +7447,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X41" t="n">
-        <v>854.9953665698242</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y41" t="n">
-        <v>446.7092428694776</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="42">
@@ -7548,19 +7548,19 @@
         <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D43" t="n">
-        <v>299.0935147726011</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E43" t="n">
-        <v>299.0935147726011</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
-        <v>122.3864607343573</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7572,19 +7572,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N43" t="n">
-        <v>1842.060047552668</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O43" t="n">
-        <v>1959.82592890043</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675981</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E44" t="n">
         <v>446.7092428694776</v>
@@ -7639,28 +7639,28 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O44" t="n">
         <v>1775.96950697326</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1696.401431380285</v>
       </c>
       <c r="X44" t="n">
-        <v>1081.54685999802</v>
+        <v>1277.258967959595</v>
       </c>
       <c r="Y44" t="n">
-        <v>673.2607362976736</v>
+        <v>880.4839877111824</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C46" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D46" t="n">
-        <v>450.2037719866647</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E46" t="n">
-        <v>450.2037719866647</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>129.0701794526559</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.047382044527</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.80470271645416</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>410.7470639734279</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5224767935401</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173441</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>141.4680432173445</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173446</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9561,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>453.2517688993037</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>105.0002374943217</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>68.57677528255658</v>
       </c>
       <c r="M31" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N31" t="n">
-        <v>70.05088382580993</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>357.5427697202093</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>45.75904403825029</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>434.5380041676942</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>15.57541623208607</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>63.21278243824906</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>396.054118850051</v>
+        <v>166.2464688960999</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5237009191198</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114.8692533779054</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>133.1999654356588</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>69.83578017384922</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>158.5442425916719</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>385.2552146558768</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>250.9794152423618</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.91154299085193</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144772</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>145.3425294405757</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>421.2982372258592</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>318.3260928796843</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.6676598093628</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.1919835652678</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>157.4702889230268</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>359.5455080571624</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.94488786268855</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>69.52134278359605</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>216.334125676397</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>119.2169052419335</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>13.424427683403</v>
       </c>
       <c r="H26" t="n">
-        <v>19.63696354238397</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.03815536706665</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>202.1418353045331</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>136.8941178020553</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>142.5494279759784</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.75934218542859</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.3425294405766</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.9536173888159</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>55.79905244308551</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>156.0966473163351</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>54.7415301048936</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>190.6650602925684</v>
+        <v>251.33869143616</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9025982497426</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>62.18173182677985</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>100.0994919970771</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779064</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>166.0857242214525</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>190.6650602925689</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>53.81683923109155</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>88.66565849005826</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.7505962861447</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25873,7 +25873,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>11.39603201741431</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>70.08712386261247</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>144.5131106570571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336099.5344973592</v>
+        <v>424126.0208520662</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424126.0208520662</v>
+        <v>424126.0208520661</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424126.0208520661</v>
+        <v>424126.0208520662</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424126.0208520662</v>
+        <v>424126.0208520661</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424126.020852066</v>
+        <v>424126.0208520661</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109551.128031233</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="F2" t="n">
         <v>141567.8141707356</v>
@@ -26334,28 +26334,28 @@
         <v>141567.8141707356</v>
       </c>
       <c r="I2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
         <v>141567.8141707357</v>
       </c>
       <c r="K2" t="n">
+        <v>141567.8141707356</v>
+      </c>
+      <c r="L2" t="n">
+        <v>141567.8141707356</v>
+      </c>
+      <c r="M2" t="n">
         <v>141567.8141707357</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>141567.8141707357</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>141567.8141707356</v>
       </c>
-      <c r="N2" t="n">
-        <v>141567.8141707356</v>
-      </c>
-      <c r="O2" t="n">
-        <v>141567.8141707355</v>
-      </c>
       <c r="P2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
-        <v>156698.3662798006</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104213.5322011236</v>
+        <v>147050.7684025715</v>
       </c>
       <c r="N3" t="n">
-        <v>42102.03588671139</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19981.1282669648</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
         <v>15620.10484543461</v>
@@ -26459,7 +26459,7 @@
         <v>15620.10484543461</v>
       </c>
       <c r="P4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.10484543462</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32636.50261996421</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963784</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26496,7 +26496,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-333670.255839455</v>
+        <v>-471792.4533182347</v>
       </c>
       <c r="F6" t="n">
-        <v>-76801.73816413738</v>
+        <v>79342.74767244123</v>
       </c>
       <c r="G6" t="n">
-        <v>79896.62811566319</v>
+        <v>79342.74767244121</v>
       </c>
       <c r="H6" t="n">
-        <v>79896.62811566319</v>
+        <v>79342.7476724412</v>
       </c>
       <c r="I6" t="n">
-        <v>79896.62811566323</v>
+        <v>79342.74767244121</v>
       </c>
       <c r="J6" t="n">
-        <v>79896.62811566322</v>
+        <v>79342.7476724413</v>
       </c>
       <c r="K6" t="n">
-        <v>79896.62811566322</v>
+        <v>79342.74767244123</v>
       </c>
       <c r="L6" t="n">
-        <v>79896.62811566322</v>
+        <v>79342.74767244121</v>
       </c>
       <c r="M6" t="n">
-        <v>-24316.90408546044</v>
+        <v>-67708.02073013021</v>
       </c>
       <c r="N6" t="n">
-        <v>37794.59222895177</v>
+        <v>79342.74767244133</v>
       </c>
       <c r="O6" t="n">
-        <v>79896.62811566313</v>
+        <v>79342.74767244123</v>
       </c>
       <c r="P6" t="n">
-        <v>79896.62811566313</v>
+        <v>79342.74767244128</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932214</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563248</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619344</v>
@@ -26807,7 +26807,7 @@
         <v>590.0818943619344</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26816,7 +26816,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
@@ -26825,13 +26825,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
-        <v>135.9305426299342</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563248</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
-        <v>171.8962625056095</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8962625056094</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8962625056095</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.329734212917736</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>13.61814050804377</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864346</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667434</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>191.2174419853368</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852203</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1063787370334189</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656607</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774915</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>185.041626288561</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>169.27693723799</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>135.8596658518924</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>13.21525299468887</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
-        <v>2.867725502271328</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>17.9375695592222</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570465</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>26.81959463117078</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39489747431346</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>2.548566412585982</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.87618865565114</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968724</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699064</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548413</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184537</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879472</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065039</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112869</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.1500950924520912</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,16 +32308,16 @@
         <v>1.00384943023825</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879941</v>
       </c>
       <c r="I18" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562344</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
         <v>217.9630089646691</v>
@@ -32326,28 +32326,28 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233627</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600663</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.0660427256735691</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238418</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.48253255205198</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624561</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116997</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32408,13 +32408,13 @@
         <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048099</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207643</v>
       </c>
       <c r="R19" t="n">
         <v>37.841110431952</v>
@@ -32423,10 +32423,10 @@
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701869</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130052</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917233</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536269</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864346</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>191.2174419853368</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.82274801921519</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>395.0550542837863</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656607</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774914</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>185.041626288561</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>135.8596658518925</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195061</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>162.5299238926254</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6248678447853</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915197</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
-        <v>418.1856318563248</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153209</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268052</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103601</v>
+        <v>529.7024996782379</v>
       </c>
       <c r="P13" t="n">
-        <v>266.66317371491</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871101</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35749,7 +35749,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>375.3116718572665</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619344</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221541</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027016</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785924</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562264</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
         <v>217.9630089646691</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>375.3116718572665</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366647</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619344</v>
@@ -36056,7 +36056,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221546</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36065,7 +36065,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027017</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916773</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36281,28 +36281,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>585.1753975240808</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512698</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36436,13 +36436,13 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36454,13 +36454,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>236.9238661190989</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>202.7781168554916</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
@@ -36764,16 +36764,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>193.6987971192211</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>198.8376634256983</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37472,13 +37472,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>296.14752065127</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,13 +37788,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37940,22 +37940,22 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>489.4663983449865</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>147.5459694702538</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
@@ -38186,16 +38186,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>563.3247837675826</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
